--- a/Data/AWS Managed Rules.xlsx
+++ b/Data/AWS Managed Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/CMMC-Bagel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD8C3493-3627-4E7E-96C1-2847DD378FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CD8C3493-3627-4E7E-96C1-2847DD378FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9A3869-9052-4B79-9C03-2664A390B70F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAB5D98F-07F5-4D47-B9FB-8A620C6B3A60}"/>
+    <workbookView xWindow="-28920" yWindow="-945" windowWidth="29040" windowHeight="15720" xr2:uid="{BAB5D98F-07F5-4D47-B9FB-8A620C6B3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="486">
   <si>
     <t>Control ID</t>
   </si>
@@ -1491,6 +1491,9 @@
   </si>
   <si>
     <t>https://docs.aws.amazon.com/config/latest/developerguide/ecr-private-image-scanning-enabled.html</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1587,193 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0F141A"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0F141A"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0F141A"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0F141A"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0F141A"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1595,6 +1784,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{052D4094-9CCF-4320-B42A-229AC05E53A8}" name="Table1" displayName="Table1" ref="A1:E560" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E560" xr:uid="{052D4094-9CCF-4320-B42A-229AC05E53A8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CED5586C-86E5-4A2F-8714-9246BF53C903}" name="Control ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3E2B8177-CBBE-4515-8B13-71971B2C84CF}" name="Control Description" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C4F7FF18-DBE3-4835-BF65-341ABCBFA215}" name="AWS Config Rule" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{FDCCC1DA-D5BD-4642-8868-2F642E665E55}" name="Guidance" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{49074DA9-5A86-4546-803E-743C77E2D325}" name="URL" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1918,7 +2121,7 @@
   <dimension ref="A1:E560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,6 +2146,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1995,7 +2201,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2218,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2029,7 +2235,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2252,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2269,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2286,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2303,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +2320,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +2337,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2354,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2371,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2388,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2405,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2422,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2439,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -2250,7 +2456,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2473,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2490,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -2301,7 +2507,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2524,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2335,7 +2541,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2558,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2575,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2386,7 +2592,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2626,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2643,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2660,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2471,7 +2677,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2488,7 +2694,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2505,7 +2711,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2556,7 +2762,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +2779,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2590,7 +2796,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -2607,7 +2813,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2624,7 +2830,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2847,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2658,7 +2864,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +2881,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>91</v>
       </c>
@@ -2692,7 +2898,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
@@ -2709,7 +2915,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -2726,7 +2932,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
@@ -2743,7 +2949,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>91</v>
       </c>
@@ -2760,7 +2966,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>91</v>
       </c>
@@ -2777,7 +2983,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>91</v>
       </c>
@@ -2794,7 +3000,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>91</v>
       </c>
@@ -2811,7 +3017,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="399.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
@@ -2828,7 +3034,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>91</v>
       </c>
@@ -2845,7 +3051,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>91</v>
       </c>
@@ -2862,7 +3068,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>91</v>
       </c>
@@ -2879,7 +3085,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>91</v>
       </c>
@@ -2896,7 +3102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
@@ -2913,7 +3119,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>91</v>
       </c>
@@ -2930,7 +3136,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>91</v>
       </c>
@@ -2947,7 +3153,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>91</v>
       </c>
@@ -2964,7 +3170,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>91</v>
       </c>
@@ -2981,7 +3187,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
@@ -2998,7 +3204,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>91</v>
       </c>
@@ -3015,7 +3221,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>91</v>
       </c>
@@ -3032,7 +3238,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -3066,7 +3272,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
@@ -3083,7 +3289,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
@@ -3100,7 +3306,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>91</v>
       </c>
@@ -3117,7 +3323,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -3134,7 +3340,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -3151,7 +3357,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -3202,7 +3408,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>91</v>
       </c>
@@ -3219,7 +3425,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>91</v>
       </c>
@@ -3236,7 +3442,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
@@ -3253,7 +3459,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
@@ -3270,7 +3476,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>95</v>
       </c>
@@ -3287,7 +3493,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>95</v>
       </c>
@@ -3304,7 +3510,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>95</v>
       </c>
@@ -3321,7 +3527,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
@@ -3338,7 +3544,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>95</v>
       </c>
@@ -3355,7 +3561,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>95</v>
       </c>
@@ -3372,7 +3578,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
@@ -3406,7 +3612,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>95</v>
       </c>
@@ -3440,7 +3646,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -3457,7 +3663,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
@@ -3474,7 +3680,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -3525,7 +3731,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
@@ -3542,7 +3748,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -3559,7 +3765,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -3576,7 +3782,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
@@ -3593,7 +3799,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
@@ -3610,7 +3816,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>105</v>
       </c>
@@ -3627,7 +3833,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>105</v>
       </c>
@@ -3644,7 +3850,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -3661,7 +3867,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>105</v>
       </c>
@@ -3678,7 +3884,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -3695,7 +3901,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
@@ -3712,7 +3918,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
@@ -3729,7 +3935,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
@@ -3746,7 +3952,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>105</v>
       </c>
@@ -3763,7 +3969,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
@@ -3780,7 +3986,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>105</v>
       </c>
@@ -3797,7 +4003,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -3814,7 +4020,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -3848,7 +4054,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>105</v>
       </c>
@@ -3865,7 +4071,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>105</v>
       </c>
@@ -3899,7 +4105,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>105</v>
       </c>
@@ -3916,7 +4122,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>105</v>
       </c>
@@ -3933,7 +4139,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>105</v>
       </c>
@@ -3984,7 +4190,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>105</v>
       </c>
@@ -4001,7 +4207,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>105</v>
       </c>
@@ -4018,7 +4224,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>105</v>
       </c>
@@ -4035,7 +4241,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>105</v>
       </c>
@@ -4052,7 +4258,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>105</v>
       </c>
@@ -4069,7 +4275,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>105</v>
       </c>
@@ -4086,7 +4292,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>109</v>
       </c>
@@ -4103,7 +4309,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>109</v>
       </c>
@@ -4120,7 +4326,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>109</v>
       </c>
@@ -4137,7 +4343,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>109</v>
       </c>
@@ -4154,7 +4360,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>109</v>
       </c>
@@ -4171,7 +4377,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>109</v>
       </c>
@@ -4188,7 +4394,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>109</v>
       </c>
@@ -4205,7 +4411,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>109</v>
       </c>
@@ -4222,7 +4428,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>109</v>
       </c>
@@ -4239,7 +4445,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>109</v>
       </c>
@@ -4256,7 +4462,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>113</v>
       </c>
@@ -4273,7 +4479,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>113</v>
       </c>
@@ -4290,7 +4496,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>113</v>
       </c>
@@ -4307,7 +4513,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>113</v>
       </c>
@@ -4324,7 +4530,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>113</v>
       </c>
@@ -4341,7 +4547,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>113</v>
       </c>
@@ -4358,7 +4564,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>113</v>
       </c>
@@ -4375,7 +4581,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>113</v>
       </c>
@@ -4392,7 +4598,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>113</v>
       </c>
@@ -4409,7 +4615,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>113</v>
       </c>
@@ -4426,7 +4632,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>113</v>
       </c>
@@ -4443,7 +4649,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>113</v>
       </c>
@@ -4460,7 +4666,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>113</v>
       </c>
@@ -4477,7 +4683,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>113</v>
       </c>
@@ -4494,7 +4700,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>113</v>
       </c>
@@ -4511,7 +4717,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>113</v>
       </c>
@@ -4528,7 +4734,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>113</v>
       </c>
@@ -4545,7 +4751,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>113</v>
       </c>
@@ -4562,7 +4768,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>113</v>
       </c>
@@ -4579,7 +4785,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>113</v>
       </c>
@@ -4613,7 +4819,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>113</v>
       </c>
@@ -4630,7 +4836,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>113</v>
       </c>
@@ -4647,7 +4853,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>113</v>
       </c>
@@ -4698,7 +4904,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>113</v>
       </c>
@@ -4715,7 +4921,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>113</v>
       </c>
@@ -4732,7 +4938,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>113</v>
       </c>
@@ -4749,7 +4955,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>115</v>
       </c>
@@ -4766,7 +4972,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>115</v>
       </c>
@@ -4783,7 +4989,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>115</v>
       </c>
@@ -4800,7 +5006,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>115</v>
       </c>
@@ -4817,7 +5023,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>115</v>
       </c>
@@ -4834,7 +5040,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>115</v>
       </c>
@@ -4851,7 +5057,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>115</v>
       </c>
@@ -4868,7 +5074,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>115</v>
       </c>
@@ -4885,7 +5091,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>115</v>
       </c>
@@ -4902,7 +5108,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>115</v>
       </c>
@@ -4919,7 +5125,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>117</v>
       </c>
@@ -4953,7 +5159,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>117</v>
       </c>
@@ -4970,7 +5176,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>117</v>
       </c>
@@ -4987,7 +5193,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>117</v>
       </c>
@@ -5004,7 +5210,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>117</v>
       </c>
@@ -5021,7 +5227,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>117</v>
       </c>
@@ -5038,7 +5244,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>117</v>
       </c>
@@ -5055,7 +5261,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>117</v>
       </c>
@@ -5072,7 +5278,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>117</v>
       </c>
@@ -5089,7 +5295,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>117</v>
       </c>
@@ -5106,7 +5312,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>117</v>
       </c>
@@ -5123,7 +5329,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>117</v>
       </c>
@@ -5140,7 +5346,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>117</v>
       </c>
@@ -5157,7 +5363,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>117</v>
       </c>
@@ -5174,7 +5380,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>117</v>
       </c>
@@ -5191,7 +5397,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>117</v>
       </c>
@@ -5208,7 +5414,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>117</v>
       </c>
@@ -5225,7 +5431,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>117</v>
       </c>
@@ -5242,7 +5448,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>135</v>
       </c>
@@ -5259,7 +5465,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>135</v>
       </c>
@@ -5276,7 +5482,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>135</v>
       </c>
@@ -5293,7 +5499,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>135</v>
       </c>
@@ -5310,7 +5516,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>143</v>
       </c>
@@ -5344,7 +5550,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>143</v>
       </c>
@@ -5361,7 +5567,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>143</v>
       </c>
@@ -5378,7 +5584,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>143</v>
       </c>
@@ -5395,7 +5601,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>143</v>
       </c>
@@ -5446,7 +5652,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>143</v>
       </c>
@@ -5463,7 +5669,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>143</v>
       </c>
@@ -5531,7 +5737,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>163</v>
       </c>
@@ -5548,7 +5754,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>163</v>
       </c>
@@ -5565,7 +5771,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>163</v>
       </c>
@@ -5582,7 +5788,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>163</v>
       </c>
@@ -5599,7 +5805,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>163</v>
       </c>
@@ -5616,7 +5822,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>163</v>
       </c>
@@ -5633,7 +5839,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>163</v>
       </c>
@@ -5650,7 +5856,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>169</v>
       </c>
@@ -5684,7 +5890,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>169</v>
       </c>
@@ -5701,7 +5907,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>169</v>
       </c>
@@ -5718,7 +5924,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>169</v>
       </c>
@@ -5735,7 +5941,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>169</v>
       </c>
@@ -5752,7 +5958,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>169</v>
       </c>
@@ -5769,7 +5975,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>169</v>
       </c>
@@ -5786,7 +5992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>169</v>
       </c>
@@ -5803,7 +6009,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>171</v>
       </c>
@@ -5820,7 +6026,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>171</v>
       </c>
@@ -5837,7 +6043,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>171</v>
       </c>
@@ -5854,7 +6060,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>171</v>
       </c>
@@ -5871,7 +6077,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>173</v>
       </c>
@@ -5888,7 +6094,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>173</v>
       </c>
@@ -5905,7 +6111,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>175</v>
       </c>
@@ -5939,7 +6145,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>175</v>
       </c>
@@ -5956,7 +6162,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>175</v>
       </c>
@@ -5973,7 +6179,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>175</v>
       </c>
@@ -5990,7 +6196,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>175</v>
       </c>
@@ -6007,7 +6213,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>175</v>
       </c>
@@ -6058,7 +6264,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>175</v>
       </c>
@@ -6075,7 +6281,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>175</v>
       </c>
@@ -6092,7 +6298,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>175</v>
       </c>
@@ -6109,7 +6315,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>175</v>
       </c>
@@ -6126,7 +6332,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>191</v>
       </c>
@@ -6143,7 +6349,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>195</v>
       </c>
@@ -6160,7 +6366,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>195</v>
       </c>
@@ -6177,7 +6383,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>195</v>
       </c>
@@ -6194,7 +6400,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>197</v>
       </c>
@@ -6211,7 +6417,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>197</v>
       </c>
@@ -6228,7 +6434,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>197</v>
       </c>
@@ -6245,7 +6451,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>197</v>
       </c>
@@ -6262,7 +6468,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>197</v>
       </c>
@@ -6279,7 +6485,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>209</v>
       </c>
@@ -6296,7 +6502,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>209</v>
       </c>
@@ -6313,7 +6519,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>209</v>
       </c>
@@ -6330,7 +6536,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>209</v>
       </c>
@@ -6347,7 +6553,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>209</v>
       </c>
@@ -6364,7 +6570,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>209</v>
       </c>
@@ -6381,7 +6587,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>209</v>
       </c>
@@ -6398,7 +6604,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>209</v>
       </c>
@@ -6415,7 +6621,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>209</v>
       </c>
@@ -6432,7 +6638,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>209</v>
       </c>
@@ -6449,7 +6655,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>209</v>
       </c>
@@ -6466,7 +6672,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>223</v>
       </c>
@@ -6500,7 +6706,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>223</v>
       </c>
@@ -6517,7 +6723,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>223</v>
       </c>
@@ -6534,7 +6740,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>223</v>
       </c>
@@ -6551,7 +6757,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>223</v>
       </c>
@@ -6568,7 +6774,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>223</v>
       </c>
@@ -6585,7 +6791,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>223</v>
       </c>
@@ -6602,7 +6808,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>223</v>
       </c>
@@ -6619,7 +6825,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>223</v>
       </c>
@@ -6636,7 +6842,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>223</v>
       </c>
@@ -6653,7 +6859,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>223</v>
       </c>
@@ -6670,7 +6876,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>225</v>
       </c>
@@ -6687,7 +6893,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>225</v>
       </c>
@@ -6704,7 +6910,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>225</v>
       </c>
@@ -6721,7 +6927,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>225</v>
       </c>
@@ -6738,7 +6944,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>225</v>
       </c>
@@ -6755,7 +6961,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>225</v>
       </c>
@@ -6772,7 +6978,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>225</v>
       </c>
@@ -6789,7 +6995,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>225</v>
       </c>
@@ -6806,7 +7012,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>225</v>
       </c>
@@ -6823,7 +7029,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>225</v>
       </c>
@@ -6840,7 +7046,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>225</v>
       </c>
@@ -6857,7 +7063,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>225</v>
       </c>
@@ -6891,7 +7097,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>225</v>
       </c>
@@ -6908,7 +7114,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>225</v>
       </c>
@@ -6942,7 +7148,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>225</v>
       </c>
@@ -6959,7 +7165,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>225</v>
       </c>
@@ -6976,7 +7182,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>225</v>
       </c>
@@ -7027,7 +7233,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>225</v>
       </c>
@@ -7044,7 +7250,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>225</v>
       </c>
@@ -7061,7 +7267,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>225</v>
       </c>
@@ -7078,7 +7284,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>225</v>
       </c>
@@ -7095,7 +7301,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>225</v>
       </c>
@@ -7112,7 +7318,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>225</v>
       </c>
@@ -7129,7 +7335,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>227</v>
       </c>
@@ -7146,7 +7352,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>227</v>
       </c>
@@ -7163,7 +7369,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>227</v>
       </c>
@@ -7180,7 +7386,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>227</v>
       </c>
@@ -7197,7 +7403,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>227</v>
       </c>
@@ -7214,7 +7420,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>227</v>
       </c>
@@ -7248,7 +7454,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>227</v>
       </c>
@@ -7282,7 +7488,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>227</v>
       </c>
@@ -7299,7 +7505,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>227</v>
       </c>
@@ -7316,7 +7522,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>227</v>
       </c>
@@ -7367,7 +7573,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>227</v>
       </c>
@@ -7384,7 +7590,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>227</v>
       </c>
@@ -7401,7 +7607,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>227</v>
       </c>
@@ -7418,7 +7624,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>227</v>
       </c>
@@ -7435,7 +7641,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>227</v>
       </c>
@@ -7452,7 +7658,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>229</v>
       </c>
@@ -7469,7 +7675,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>229</v>
       </c>
@@ -7486,7 +7692,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>229</v>
       </c>
@@ -7503,7 +7709,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>231</v>
       </c>
@@ -7537,7 +7743,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>231</v>
       </c>
@@ -7554,7 +7760,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>231</v>
       </c>
@@ -7571,7 +7777,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>231</v>
       </c>
@@ -7588,7 +7794,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>231</v>
       </c>
@@ -7605,7 +7811,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>231</v>
       </c>
@@ -7622,7 +7828,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>231</v>
       </c>
@@ -7639,7 +7845,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>231</v>
       </c>
@@ -7656,7 +7862,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>233</v>
       </c>
@@ -7673,7 +7879,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="399.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>233</v>
       </c>
@@ -7690,7 +7896,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>233</v>
       </c>
@@ -7707,7 +7913,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>233</v>
       </c>
@@ -7724,7 +7930,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>233</v>
       </c>
@@ -7741,7 +7947,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>233</v>
       </c>
@@ -7758,7 +7964,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>235</v>
       </c>
@@ -7775,7 +7981,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>235</v>
       </c>
@@ -7792,7 +7998,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>235</v>
       </c>
@@ -7809,7 +8015,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>235</v>
       </c>
@@ -7826,7 +8032,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" ht="399.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>237</v>
       </c>
@@ -7843,7 +8049,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>237</v>
       </c>
@@ -7860,7 +8066,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" ht="399.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>239</v>
       </c>
@@ -7877,7 +8083,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="399.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>241</v>
       </c>
@@ -7894,7 +8100,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>243</v>
       </c>
@@ -7928,7 +8134,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>243</v>
       </c>
@@ -7945,7 +8151,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>243</v>
       </c>
@@ -7962,7 +8168,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>243</v>
       </c>
@@ -7979,7 +8185,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>243</v>
       </c>
@@ -7996,7 +8202,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>243</v>
       </c>
@@ -8013,7 +8219,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>243</v>
       </c>
@@ -8030,7 +8236,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>243</v>
       </c>
@@ -8047,7 +8253,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>243</v>
       </c>
@@ -8098,7 +8304,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>243</v>
       </c>
@@ -8115,7 +8321,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>243</v>
       </c>
@@ -8132,7 +8338,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>243</v>
       </c>
@@ -8166,7 +8372,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>243</v>
       </c>
@@ -8183,7 +8389,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>243</v>
       </c>
@@ -8200,7 +8406,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>243</v>
       </c>
@@ -8217,7 +8423,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>243</v>
       </c>
@@ -8234,7 +8440,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>243</v>
       </c>
@@ -8251,7 +8457,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>243</v>
       </c>
@@ -8268,7 +8474,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>243</v>
       </c>
@@ -8285,7 +8491,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>243</v>
       </c>
@@ -8302,7 +8508,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>271</v>
       </c>
@@ -8319,7 +8525,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>271</v>
       </c>
@@ -8336,7 +8542,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>271</v>
       </c>
@@ -8353,7 +8559,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>271</v>
       </c>
@@ -8370,7 +8576,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>277</v>
       </c>
@@ -8387,7 +8593,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>281</v>
       </c>
@@ -8404,7 +8610,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>281</v>
       </c>
@@ -8421,7 +8627,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>283</v>
       </c>
@@ -8438,7 +8644,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>283</v>
       </c>
@@ -8455,7 +8661,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>283</v>
       </c>
@@ -8472,7 +8678,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>283</v>
       </c>
@@ -8523,7 +8729,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>285</v>
       </c>
@@ -8540,7 +8746,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>285</v>
       </c>
@@ -8557,7 +8763,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>285</v>
       </c>
@@ -8574,7 +8780,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>285</v>
       </c>
@@ -8608,7 +8814,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>285</v>
       </c>
@@ -8625,7 +8831,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>285</v>
       </c>
@@ -8642,7 +8848,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>285</v>
       </c>
@@ -8676,7 +8882,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>285</v>
       </c>
@@ -8693,7 +8899,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>285</v>
       </c>
@@ -8710,7 +8916,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>285</v>
       </c>
@@ -8727,7 +8933,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>285</v>
       </c>
@@ -8761,7 +8967,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>285</v>
       </c>
@@ -8795,7 +9001,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>285</v>
       </c>
@@ -8812,7 +9018,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>285</v>
       </c>
@@ -8863,7 +9069,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>285</v>
       </c>
@@ -8880,7 +9086,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>285</v>
       </c>
@@ -8897,7 +9103,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>285</v>
       </c>
@@ -8948,7 +9154,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>285</v>
       </c>
@@ -8965,7 +9171,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>285</v>
       </c>
@@ -8982,7 +9188,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>285</v>
       </c>
@@ -8999,7 +9205,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>285</v>
       </c>
@@ -9016,7 +9222,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>285</v>
       </c>
@@ -9033,7 +9239,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>285</v>
       </c>
@@ -9050,7 +9256,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>285</v>
       </c>
@@ -9067,7 +9273,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>285</v>
       </c>
@@ -9084,7 +9290,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>287</v>
       </c>
@@ -9101,7 +9307,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>287</v>
       </c>
@@ -9118,7 +9324,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>287</v>
       </c>
@@ -9135,7 +9341,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>287</v>
       </c>
@@ -9152,7 +9358,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>287</v>
       </c>
@@ -9169,7 +9375,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>287</v>
       </c>
@@ -9186,7 +9392,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>287</v>
       </c>
@@ -9203,7 +9409,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>287</v>
       </c>
@@ -9220,7 +9426,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>287</v>
       </c>
@@ -9237,7 +9443,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>287</v>
       </c>
@@ -9254,7 +9460,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>287</v>
       </c>
@@ -9271,7 +9477,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>287</v>
       </c>
@@ -9288,7 +9494,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>287</v>
       </c>
@@ -9305,7 +9511,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>287</v>
       </c>
@@ -9322,7 +9528,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>287</v>
       </c>
@@ -9339,7 +9545,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>287</v>
       </c>
@@ -9356,7 +9562,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>287</v>
       </c>
@@ -9373,7 +9579,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>287</v>
       </c>
@@ -9390,7 +9596,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>287</v>
       </c>
@@ -9407,7 +9613,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>287</v>
       </c>
@@ -9424,7 +9630,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>287</v>
       </c>
@@ -9441,7 +9647,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>287</v>
       </c>
@@ -9458,7 +9664,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>287</v>
       </c>
@@ -9475,7 +9681,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>287</v>
       </c>
@@ -9492,7 +9698,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>287</v>
       </c>
@@ -9509,7 +9715,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>287</v>
       </c>
@@ -9526,7 +9732,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>287</v>
       </c>
@@ -9543,7 +9749,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>287</v>
       </c>
@@ -9577,7 +9783,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>287</v>
       </c>
@@ -9594,7 +9800,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>287</v>
       </c>
@@ -9611,7 +9817,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>287</v>
       </c>
@@ -9628,7 +9834,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>287</v>
       </c>
@@ -9645,7 +9851,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>287</v>
       </c>
@@ -9662,7 +9868,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>287</v>
       </c>
@@ -9679,7 +9885,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>287</v>
       </c>
@@ -9713,7 +9919,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>287</v>
       </c>
@@ -9730,7 +9936,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>287</v>
       </c>
@@ -9747,7 +9953,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>287</v>
       </c>
@@ -9764,7 +9970,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>287</v>
       </c>
@@ -9815,7 +10021,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>287</v>
       </c>
@@ -9832,7 +10038,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>287</v>
       </c>
@@ -9849,7 +10055,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>287</v>
       </c>
@@ -9866,7 +10072,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>287</v>
       </c>
@@ -9883,7 +10089,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>287</v>
       </c>
@@ -9900,7 +10106,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>287</v>
       </c>
@@ -9917,7 +10123,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>287</v>
       </c>
@@ -9934,7 +10140,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>287</v>
       </c>
@@ -9951,7 +10157,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>287</v>
       </c>
@@ -9968,7 +10174,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>328</v>
       </c>
@@ -9985,7 +10191,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>328</v>
       </c>
@@ -10002,7 +10208,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>328</v>
       </c>
@@ -10019,7 +10225,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>328</v>
       </c>
@@ -10036,7 +10242,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>328</v>
       </c>
@@ -10070,7 +10276,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>328</v>
       </c>
@@ -10087,7 +10293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>328</v>
       </c>
@@ -10121,7 +10327,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>328</v>
       </c>
@@ -10138,7 +10344,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>328</v>
       </c>
@@ -10155,7 +10361,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>328</v>
       </c>
@@ -10206,7 +10412,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>328</v>
       </c>
@@ -10223,7 +10429,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>328</v>
       </c>
@@ -10240,7 +10446,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>328</v>
       </c>
@@ -10257,7 +10463,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>328</v>
       </c>
@@ -10274,7 +10480,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>330</v>
       </c>
@@ -10342,7 +10548,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>330</v>
       </c>
@@ -10359,7 +10565,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>330</v>
       </c>
@@ -10376,7 +10582,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>330</v>
       </c>
@@ -10427,7 +10633,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>330</v>
       </c>
@@ -10444,7 +10650,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>330</v>
       </c>
@@ -10461,7 +10667,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>332</v>
       </c>
@@ -10478,7 +10684,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>332</v>
       </c>
@@ -10512,7 +10718,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>338</v>
       </c>
@@ -10529,7 +10735,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>338</v>
       </c>
@@ -10546,7 +10752,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>338</v>
       </c>
@@ -10597,7 +10803,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>340</v>
       </c>
@@ -10614,7 +10820,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>340</v>
       </c>
@@ -10648,7 +10854,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
         <v>340</v>
       </c>
@@ -10665,7 +10871,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
         <v>340</v>
       </c>
@@ -10682,7 +10888,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
         <v>340</v>
       </c>
@@ -10716,7 +10922,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>340</v>
       </c>
@@ -10733,7 +10939,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
         <v>340</v>
       </c>
@@ -10750,7 +10956,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
         <v>340</v>
       </c>
@@ -10767,7 +10973,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
         <v>340</v>
       </c>
@@ -10784,7 +10990,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
         <v>340</v>
       </c>
@@ -10801,7 +11007,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
         <v>340</v>
       </c>
@@ -10818,7 +11024,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>340</v>
       </c>
@@ -10835,7 +11041,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
         <v>340</v>
       </c>
@@ -10852,7 +11058,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
         <v>340</v>
       </c>
@@ -10869,7 +11075,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
         <v>342</v>
       </c>
@@ -10886,7 +11092,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
         <v>342</v>
       </c>
@@ -10903,7 +11109,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>342</v>
       </c>
@@ -10920,7 +11126,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>344</v>
       </c>
@@ -10937,7 +11143,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>346</v>
       </c>
@@ -10954,7 +11160,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>350</v>
       </c>
@@ -10971,7 +11177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>350</v>
       </c>
@@ -10988,7 +11194,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>350</v>
       </c>
@@ -11005,7 +11211,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>350</v>
       </c>
@@ -11022,7 +11228,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>350</v>
       </c>
@@ -11039,7 +11245,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>350</v>
       </c>
@@ -11056,7 +11262,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>350</v>
       </c>
@@ -11073,7 +11279,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>350</v>
       </c>
@@ -11090,7 +11296,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>350</v>
       </c>
@@ -11107,7 +11313,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>352</v>
       </c>
@@ -11124,7 +11330,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>352</v>
       </c>
@@ -11141,7 +11347,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>352</v>
       </c>
@@ -11158,7 +11364,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>352</v>
       </c>
@@ -11175,7 +11381,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>352</v>
       </c>
@@ -11192,7 +11398,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>352</v>
       </c>
@@ -11209,7 +11415,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>352</v>
       </c>
@@ -11226,7 +11432,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>352</v>
       </c>
@@ -11243,7 +11449,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>354</v>
       </c>
@@ -11277,7 +11483,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>354</v>
       </c>
@@ -11294,7 +11500,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>354</v>
       </c>
@@ -11311,7 +11517,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>354</v>
       </c>
@@ -11328,7 +11534,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>354</v>
       </c>
@@ -11345,7 +11551,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>354</v>
       </c>
@@ -11362,7 +11568,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>354</v>
       </c>
@@ -11379,7 +11585,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>354</v>
       </c>
@@ -11396,7 +11602,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" ht="186" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>354</v>
       </c>
@@ -11413,7 +11619,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>354</v>
       </c>
@@ -11430,7 +11636,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>354</v>
       </c>
@@ -12008,5 +12214,8 @@
     <hyperlink ref="C2" r:id="rId557" display="https://docs.aws.amazon.com/config/latest/developerguide/access-keys-rotated.html" xr:uid="{10731E39-44EA-4802-B723-0C97A94EF1A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId558"/>
+  </tableParts>
 </worksheet>
 </file>